--- a/biology/Histoire de la zoologie et de la botanique/Koso-Pol/Koso-Pol..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Koso-Pol/Koso-Pol..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boris Mikhaïlovitch Kozo-Polianski (Бори́с Миха́йлович Козо́-Поля́нский), né le 8 (20) janvier 1890 à Achkhabad (Empire russe) et mort le 21 avril 1957 à Voronej (URSS), est un botaniste soviétique qui fut membre correspondant de l'Académie des sciences d'URSS (1932), professeur à l'université de Voronej (à partir de 1920), ainsi que directeur du jardin botanique de Voronej (qu'il fonde en 1937)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boris Mikhaïlovitch Kozo-Polianski (Бори́с Миха́йлович Козо́-Поля́нский), né le 8 (20) janvier 1890 à Achkhabad (Empire russe) et mort le 21 avril 1957 à Voronej (URSS), est un botaniste soviétique qui fut membre correspondant de l'Académie des sciences d'URSS (1932), professeur à l'université de Voronej (à partir de 1920), ainsi que directeur du jardin botanique de Voronej (qu'il fonde en 1937).
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kozo-Polianski naît à Achkhabad le 8 janvier 1890 selon l'ancien style. Il poursuit ses études à l'université de Moscou qu'il termine en 1918[2]. Il devient professeur de l'université de Voronej en 1920.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kozo-Polianski naît à Achkhabad le 8 janvier 1890 selon l'ancien style. Il poursuit ses études à l'université de Moscou qu'il termine en 1918. Il devient professeur de l'université de Voronej en 1920.
 Il se spécialise en phylogénétique et en morphologie.
-Il est le fondateur de la théorie endosymbiotique[3], qui sera reprise et développée quelques années plus tard par la biologiste Lynn Margulis[4].
+Il est le fondateur de la théorie endosymbiotique, qui sera reprise et développée quelques années plus tard par la biologiste Lynn Margulis.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Genre :
 (Apiaceae) Kosopoljanskia, Korovin
@@ -580,7 +596,9 @@
           <t>Œuvres principales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Введение в филогенетическую систематику высших растений, Voronej, 1922
 Новый принцип биологии. Очерк теории симбиогенеза [Nouveau principe de biologie. Essai de théorie de symbiogenèse], Moscou, 1924; traduit en américain et édité par Harvard Univ. Press en 2009 par Lynn Margulis (traduction Victor Fet).
@@ -614,7 +632,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ordre de Lénine
 Ordre du Drapeau rouge du Travail</t>
